--- a/medicine/Enfance/Alice_(Alice_au_pays_des_merveilles)/Alice_(Alice_au_pays_des_merveilles).xlsx
+++ b/medicine/Enfance/Alice_(Alice_au_pays_des_merveilles)/Alice_(Alice_au_pays_des_merveilles).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alice est un personnage de fiction britannique qui est le protagoniste du roman pour enfants de Lewis Carroll Les Aventures d'Alice au pays des merveilles (1865) et de sa suite De l'autre côté du miroir (1871). Enfant, à l'ère victorienne, Alice se lance involontairement dans une aventure souterraine après être accidentellement tombée par un trou de lapin dans le Pays des merveilles (en). Par la suite, elle traverse un miroir et entre dans un monde alternatif.
@@ -513,9 +525,11 @@
           <t>Illustrations du personnage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la création du roman, Lewis Caroll illustra lui-même Alice dans un ouvrage dessiné à la plume. Il offrit par la suite un manuscrit, illustré de sa propre main, à Alice Liddell le 26 novembre 1864[1],[2]. Lewis Caroll choisi, par la suite, d’engager l'illustrateur John Tenniel pour son ouvrage. L'invention de l’image d’Alice a été compliquée. Lewis Caroll et son dessinateur, John Tenniel, n’étaient jamais d’accord sur l'apparence qu'il fallait donner à Alice. Et Caroll reprochait à Tenniel de dessiner Alice hors des proportions naturelles, ce qui est assez comique, vu que Caroll lui-même dessinait Alice de manière tout à fait non conventionnelle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la création du roman, Lewis Caroll illustra lui-même Alice dans un ouvrage dessiné à la plume. Il offrit par la suite un manuscrit, illustré de sa propre main, à Alice Liddell le 26 novembre 1864,. Lewis Caroll choisi, par la suite, d’engager l'illustrateur John Tenniel pour son ouvrage. L'invention de l’image d’Alice a été compliquée. Lewis Caroll et son dessinateur, John Tenniel, n’étaient jamais d’accord sur l'apparence qu'il fallait donner à Alice. Et Caroll reprochait à Tenniel de dessiner Alice hors des proportions naturelles, ce qui est assez comique, vu que Caroll lui-même dessinait Alice de manière tout à fait non conventionnelle.
 			« Bois moi ». Lewis Caroll, fac similé de la version de 1864
 			« Bois moi ». Illustration de Tenniel dans la publication de 1889.
 </t>
